--- a/ListasDatos/Ochoa Martínez Mayeli_2021.xlsx
+++ b/ListasDatos/Ochoa Martínez Mayeli_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="1627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1630">
   <si>
     <t>NC</t>
   </si>
@@ -577,7 +577,7 @@
     <t>JESUS HERNANDEZ AQUINO</t>
   </si>
   <si>
-    <t>FERNANDO IXMATLAHUA ANDRADE IXTACZOQUITLAN HERNANDEZ</t>
+    <t>FERNANDO IXMATLAHUA ANDRADE</t>
   </si>
   <si>
     <t>ISABEL MONGE MORA</t>
@@ -1186,7 +1186,7 @@
     <t>2722351304</t>
   </si>
   <si>
-    <t>27272100000000000</t>
+    <t>2.72721e+16</t>
   </si>
   <si>
     <t>2722110115</t>
@@ -1264,7 +1264,7 @@
     <t>MARISOL ARELLANO SERENA</t>
   </si>
   <si>
-    <t>MUCIO SERGIO NEPOMUCENO DE JESÚS</t>
+    <t>MARÍA VIVIANA DE JESÚS MOLOHUA</t>
   </si>
   <si>
     <t>CLEMENTE OFICIAL VAZQUEZ</t>
@@ -1273,7 +1273,7 @@
     <t>LUZ MARÍA PALOMARES DE LOS SANTOS</t>
   </si>
   <si>
-    <t>ENRIQUETA YULI PÉREZ CONTRERAS GEORGINA CONTRERAS LEYVA PEREZ CONTRERAS</t>
+    <t>ENRIQUETA YULI PEREZ CONTRERAS</t>
   </si>
   <si>
     <t>MARIA ELENA IXMATLAHUA JUAREZ</t>
@@ -1945,7 +1945,7 @@
     <t>LAURA PEREA VILLASEÑOR</t>
   </si>
   <si>
-    <t>NORMA MIGUELINA RUIZ CASTILLO RUIZ CASTILLO</t>
+    <t>NORMA MIGUELINA RUIZ CASTILLO</t>
   </si>
   <si>
     <t>ROSAS HORTENSIA ORTEGA</t>
@@ -3526,7 +3526,7 @@
     <t>DÁMARIS CID PÉREZ</t>
   </si>
   <si>
-    <t>ANA LAURA HUERTA JORGE ALFONSO CASTILLO CRUZ ANA LAURA HUERTA JORGE</t>
+    <t>ANA LAURA HUERTA JORGE</t>
   </si>
   <si>
     <t>MARTHA ELENA PÉREZ GUERRA</t>
@@ -4084,7 +4084,7 @@
     <t>ANGEL NURIEL HERNANDEZ LOPEZ</t>
   </si>
   <si>
-    <t>NORBERTA FLORES FRIAS FLORES FRIAS</t>
+    <t>NORBERTA FLORES FRIAS</t>
   </si>
   <si>
     <t>F. ESTEFANÍA REYES BALTAZAR</t>
@@ -4417,6 +4417,9 @@
     <t>adriana_arelycg@outlook.com</t>
   </si>
   <si>
+    <t>aisha.naomi05@hotmail.com</t>
+  </si>
+  <si>
     <t>arant0610@gmail.com</t>
   </si>
   <si>
@@ -4522,6 +4525,9 @@
     <t>2722088572</t>
   </si>
   <si>
+    <t>2721538846</t>
+  </si>
+  <si>
     <t>2721829816</t>
   </si>
   <si>
@@ -4666,7 +4672,7 @@
     <t>FERNANDO ELOY BUSTOS HERNÁNDEZ</t>
   </si>
   <si>
-    <t>KARINA JAQUELINE LEAL RIVERA CANSECO DIAZ LEAL RIVERA</t>
+    <t>KARINA JAQUELINE LEAL RIVERA</t>
   </si>
   <si>
     <t>MARIA ELENA GONZALEZ TINOCO</t>
@@ -4675,6 +4681,9 @@
     <t>JOSÉ ADRIÁN CRUZ BERISTAIN</t>
   </si>
   <si>
+    <t>JACINTO CRUZ MARTÍNEZ</t>
+  </si>
+  <si>
     <t>GREGORIO ARROYO MENDOZA</t>
   </si>
   <si>
@@ -4780,9 +4789,6 @@
     <t>lobatodaniel007@gmail.com</t>
   </si>
   <si>
-    <t>Kakakabs</t>
-  </si>
-  <si>
     <t>bonylopez119@gmail.com</t>
   </si>
   <si>
@@ -4835,6 +4841,9 @@
   </si>
   <si>
     <t>2722581860</t>
+  </si>
+  <si>
+    <t>2721757221</t>
   </si>
   <si>
     <t>2727221943</t>
@@ -11945,19 +11954,19 @@
         <v>1456</v>
       </c>
       <c r="F2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="G2" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="H2" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="I2" t="s">
         <v>1456</v>
       </c>
       <c r="J2" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11977,19 +11986,19 @@
         <v>1457</v>
       </c>
       <c r="F3" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="G3" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="H3" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="I3" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="J3" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12009,13 +12018,13 @@
         <v>1458</v>
       </c>
       <c r="F4" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="G4" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="H4" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12035,19 +12044,19 @@
         <v>1459</v>
       </c>
       <c r="F5" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="G5" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="H5" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="I5" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="J5" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12067,19 +12076,19 @@
         <v>1460</v>
       </c>
       <c r="F6" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="G6" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="H6" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="I6" t="s">
         <v>1460</v>
       </c>
       <c r="J6" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12099,16 +12108,16 @@
         <v>1461</v>
       </c>
       <c r="F7" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="G7" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="H7" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="J7" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12128,16 +12137,16 @@
         <v>1462</v>
       </c>
       <c r="F8" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="G8" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="H8" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="I8" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12157,16 +12166,16 @@
         <v>1463</v>
       </c>
       <c r="F9" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H9" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="I9" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="J9" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12186,19 +12195,19 @@
         <v>1464</v>
       </c>
       <c r="F10" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="G10" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="H10" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="I10" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J10" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12214,6 +12223,21 @@
       <c r="D11" t="s">
         <v>1431</v>
       </c>
+      <c r="E11" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1607</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
@@ -12229,22 +12253,22 @@
         <v>772</v>
       </c>
       <c r="E12" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="F12" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="G12" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="H12" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="I12" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="J12" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12261,22 +12285,22 @@
         <v>1432</v>
       </c>
       <c r="E13" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="F13" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="G13" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="H13" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="I13" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="J13" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12293,22 +12317,22 @@
         <v>1433</v>
       </c>
       <c r="E14" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="F14" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="G14" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="H14" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="I14" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="J14" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12325,19 +12349,19 @@
         <v>1434</v>
       </c>
       <c r="E15" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="F15" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="H15" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="I15" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="J15" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12354,19 +12378,19 @@
         <v>1435</v>
       </c>
       <c r="E16" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="F16" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="H16" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="I16" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="J16" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12383,22 +12407,22 @@
         <v>1436</v>
       </c>
       <c r="E17" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="F17" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="G17" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="H17" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="I17" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="J17" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12415,19 +12439,19 @@
         <v>1437</v>
       </c>
       <c r="E18" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F18" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="G18" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="H18" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="J18" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12444,19 +12468,19 @@
         <v>1438</v>
       </c>
       <c r="E19" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="F19" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="H19" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="I19" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="J19" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -12473,22 +12497,19 @@
         <v>1439</v>
       </c>
       <c r="E20" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="F20" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="G20" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="H20" t="s">
-        <v>1559</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1586</v>
+        <v>1562</v>
       </c>
       <c r="J20" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -12505,22 +12526,22 @@
         <v>1440</v>
       </c>
       <c r="E21" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="F21" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="G21" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="H21" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="I21" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="J21" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -12537,22 +12558,22 @@
         <v>1441</v>
       </c>
       <c r="E22" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F22" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="G22" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="H22" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="I22" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="J22" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -12569,19 +12590,19 @@
         <v>752</v>
       </c>
       <c r="E23" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="F23" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="G23" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="H23" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="I23" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -12598,22 +12619,22 @@
         <v>1442</v>
       </c>
       <c r="E24" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="F24" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G24" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H24" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="I24" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="J24" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -12630,22 +12651,22 @@
         <v>1443</v>
       </c>
       <c r="E25" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="F25" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="G25" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="H25" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="I25" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="J25" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -12662,16 +12683,16 @@
         <v>1444</v>
       </c>
       <c r="E26" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="F26" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="G26" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="H26" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -12688,19 +12709,19 @@
         <v>1445</v>
       </c>
       <c r="E27" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="F27" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="H27" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="I27" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="J27" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -12717,22 +12738,22 @@
         <v>1446</v>
       </c>
       <c r="E28" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="F28" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="G28" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="H28" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="I28" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="J28" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -12749,22 +12770,22 @@
         <v>1447</v>
       </c>
       <c r="E29" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="F29" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="G29" t="s">
         <v>169</v>
       </c>
       <c r="H29" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="I29" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="J29" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -12781,19 +12802,19 @@
         <v>1448</v>
       </c>
       <c r="E30" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="F30" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="G30" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="H30" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="J30" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -12810,22 +12831,22 @@
         <v>1449</v>
       </c>
       <c r="E31" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="F31" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="G31" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="H31" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="I31" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="J31" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -12842,22 +12863,22 @@
         <v>1450</v>
       </c>
       <c r="E32" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="F32" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="G32" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="H32" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="I32" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="J32" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -12874,19 +12895,19 @@
         <v>1451</v>
       </c>
       <c r="E33" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="F33" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="H33" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="I33" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="J33" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -12903,22 +12924,22 @@
         <v>1452</v>
       </c>
       <c r="E34" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="F34" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="G34" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="H34" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="I34" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="J34" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -12935,22 +12956,22 @@
         <v>1453</v>
       </c>
       <c r="E35" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="F35" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="G35" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="H35" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="I35" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="J35" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -12967,16 +12988,16 @@
         <v>1454</v>
       </c>
       <c r="E36" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="F36" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="H36" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="J36" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -12993,19 +13014,19 @@
         <v>1455</v>
       </c>
       <c r="E37" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="F37" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="H37" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="I37" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="J37" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
     </row>
   </sheetData>
